--- a/ДЗ_06.xlsx
+++ b/ДЗ_06.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="Workbook________"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="555" windowWidth="20610" windowHeight="11640" tabRatio="682" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="555" windowWidth="17400" windowHeight="11640" tabRatio="682" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="118">
   <si>
     <t>passed</t>
   </si>
@@ -555,7 +555,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,6 +662,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -755,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -837,6 +846,27 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -846,27 +876,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1204,7 +1214,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1260,10 +1270,10 @@
   <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1307,7 +1317,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="15">
         <f>COUNTIF(L$8:L$42,"failed")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M1" s="10"/>
       <c r="N1" s="15">
@@ -1352,7 +1362,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="16">
         <f>COUNTIF(L$8:L$42,"passed")</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="16">
@@ -1395,7 +1405,9 @@
         <v>7</v>
       </c>
       <c r="K3" s="10"/>
-      <c r="L3" s="21"/>
+      <c r="L3" s="21">
+        <v>44111</v>
+      </c>
       <c r="M3" s="10"/>
       <c r="N3" s="21"/>
       <c r="O3" s="10"/>
@@ -1479,43 +1491,43 @@
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="32" t="s">
+      <c r="F6" s="29"/>
+      <c r="G6" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="30"/>
+      <c r="J6" s="37"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="36" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="36" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="29"/>
+      <c r="P6" s="36"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="29"/>
+      <c r="R6" s="36"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="29"/>
+      <c r="T6" s="36"/>
       <c r="U6" s="10"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1525,29 +1537,29 @@
     </row>
     <row r="7" spans="1:26" ht="90" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="35"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="31"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="38"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="29"/>
+      <c r="L7" s="36"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="29"/>
+      <c r="N7" s="36"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="29"/>
+      <c r="P7" s="36"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="29"/>
+      <c r="R7" s="36"/>
       <c r="S7" s="10"/>
-      <c r="T7" s="29"/>
+      <c r="T7" s="36"/>
       <c r="U7" s="10"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1577,7 +1589,9 @@
       <c r="I8" s="20"/>
       <c r="J8" s="19"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="10"/>
       <c r="N8" s="5"/>
       <c r="O8" s="10"/>
@@ -1613,7 +1627,9 @@
       <c r="I9" s="20"/>
       <c r="J9" s="19"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="10"/>
       <c r="N9" s="5"/>
       <c r="O9" s="10"/>
@@ -1649,7 +1665,9 @@
       <c r="I10" s="20"/>
       <c r="J10" s="19"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="5"/>
       <c r="O10" s="10"/>
@@ -1685,7 +1703,9 @@
       <c r="I11" s="27"/>
       <c r="J11" s="19"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M11" s="10"/>
       <c r="N11" s="5"/>
       <c r="O11" s="10"/>
@@ -1721,7 +1741,9 @@
       <c r="I12" s="20"/>
       <c r="J12" s="19"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="10"/>
       <c r="N12" s="5"/>
       <c r="O12" s="10"/>
@@ -1757,7 +1779,9 @@
       <c r="I13" s="20"/>
       <c r="J13" s="19"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="5"/>
+      <c r="L13" s="39" t="s">
+        <v>1</v>
+      </c>
       <c r="M13" s="10"/>
       <c r="N13" s="5"/>
       <c r="O13" s="10"/>
@@ -1793,7 +1817,9 @@
       <c r="I14" s="20"/>
       <c r="J14" s="19"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M14" s="10"/>
       <c r="N14" s="5"/>
       <c r="O14" s="10"/>
@@ -1828,7 +1854,9 @@
       <c r="I15" s="20"/>
       <c r="J15" s="19"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="10"/>
       <c r="N15" s="5"/>
       <c r="O15" s="10"/>
@@ -1864,7 +1892,9 @@
       <c r="I16" s="20"/>
       <c r="J16" s="19"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M16" s="10"/>
       <c r="N16" s="5"/>
       <c r="O16" s="10"/>
@@ -1900,7 +1930,9 @@
       <c r="I17" s="20"/>
       <c r="J17" s="19"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="5"/>
+      <c r="L17" s="39" t="s">
+        <v>1</v>
+      </c>
       <c r="M17" s="10"/>
       <c r="N17" s="5"/>
       <c r="O17" s="10"/>
@@ -1936,7 +1968,9 @@
       <c r="I18" s="20"/>
       <c r="J18" s="19"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="5"/>
+      <c r="L18" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M18" s="10"/>
       <c r="N18" s="5"/>
       <c r="O18" s="10"/>
@@ -1974,7 +2008,9 @@
       <c r="I19" s="20"/>
       <c r="J19" s="19"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="5"/>
+      <c r="L19" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M19" s="10"/>
       <c r="N19" s="5"/>
       <c r="O19" s="10"/>
@@ -2010,7 +2046,9 @@
       <c r="I20" s="20"/>
       <c r="J20" s="19"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="5"/>
+      <c r="L20" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M20" s="10"/>
       <c r="N20" s="5"/>
       <c r="O20" s="10"/>
@@ -2046,7 +2084,9 @@
       <c r="I21" s="20"/>
       <c r="J21" s="19"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="5"/>
+      <c r="L21" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M21" s="10"/>
       <c r="N21" s="5"/>
       <c r="O21" s="10"/>
@@ -2082,7 +2122,9 @@
       <c r="I22" s="20"/>
       <c r="J22" s="19"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="5"/>
+      <c r="L22" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M22" s="10"/>
       <c r="N22" s="5"/>
       <c r="O22" s="10"/>
@@ -2118,7 +2160,9 @@
       <c r="I23" s="20"/>
       <c r="J23" s="19"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="5"/>
+      <c r="L23" s="39" t="s">
+        <v>1</v>
+      </c>
       <c r="M23" s="10"/>
       <c r="N23" s="5"/>
       <c r="O23" s="10"/>
@@ -2154,7 +2198,9 @@
       <c r="I24" s="20"/>
       <c r="J24" s="19"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="5"/>
+      <c r="L24" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M24" s="10"/>
       <c r="N24" s="5"/>
       <c r="O24" s="10"/>
@@ -2190,7 +2236,9 @@
       <c r="I25" s="20"/>
       <c r="J25" s="19"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="5"/>
+      <c r="L25" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M25" s="10"/>
       <c r="N25" s="5"/>
       <c r="O25" s="10"/>
@@ -2226,7 +2274,9 @@
       <c r="I26" s="20"/>
       <c r="J26" s="19"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="5"/>
+      <c r="L26" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M26" s="10"/>
       <c r="N26" s="5"/>
       <c r="O26" s="10"/>
@@ -2262,7 +2312,9 @@
       <c r="I27" s="20"/>
       <c r="J27" s="19"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="5"/>
+      <c r="L27" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M27" s="10"/>
       <c r="N27" s="5"/>
       <c r="O27" s="10"/>
@@ -3245,12 +3297,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3258,6 +3304,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N42 L8:L42 R8:R42 P8:P42 T8:T42">
